--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lgals1-Ptprc.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lgals1-Ptprc.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>47.837127</v>
+        <v>36.02515</v>
       </c>
       <c r="H2">
-        <v>143.511381</v>
+        <v>108.07545</v>
       </c>
       <c r="I2">
-        <v>0.05107837591710958</v>
+        <v>0.06133193329924569</v>
       </c>
       <c r="J2">
-        <v>0.05107837591710957</v>
+        <v>0.0613319332992457</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7744373333333333</v>
+        <v>1.058456666666667</v>
       </c>
       <c r="N2">
-        <v>2.323312</v>
+        <v>3.17537</v>
       </c>
       <c r="O2">
-        <v>0.001996953570362765</v>
+        <v>0.00154290138396175</v>
       </c>
       <c r="P2">
-        <v>0.001996953570362765</v>
+        <v>0.00154290138396175</v>
       </c>
       <c r="Q2">
-        <v>37.046857068208</v>
+        <v>38.13106018516667</v>
       </c>
       <c r="R2">
-        <v>333.421713613872</v>
+        <v>343.1795416665001</v>
       </c>
       <c r="S2">
-        <v>0.0001020011451560035</v>
+        <v>9.462912476845589E-05</v>
       </c>
       <c r="T2">
-        <v>0.0001020011451560034</v>
+        <v>9.462912476845592E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>47.837127</v>
+        <v>36.02515</v>
       </c>
       <c r="H3">
-        <v>143.511381</v>
+        <v>108.07545</v>
       </c>
       <c r="I3">
-        <v>0.05107837591710958</v>
+        <v>0.06133193329924569</v>
       </c>
       <c r="J3">
-        <v>0.05107837591710957</v>
+        <v>0.0613319332992457</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -626,22 +626,22 @@
         <v>0.8592070000000001</v>
       </c>
       <c r="O3">
-        <v>0.0007385131598040558</v>
+        <v>0.000417485732185422</v>
       </c>
       <c r="P3">
-        <v>0.0007385131598040556</v>
+        <v>0.0004174857321854219</v>
       </c>
       <c r="Q3">
-        <v>13.700664792763</v>
+        <v>10.31768701868334</v>
       </c>
       <c r="R3">
-        <v>123.305983134867</v>
+        <v>92.85918316815003</v>
       </c>
       <c r="S3">
-        <v>3.772205279620399E-05</v>
+        <v>2.560520707978305E-05</v>
       </c>
       <c r="T3">
-        <v>3.772205279620397E-05</v>
+        <v>2.560520707978305E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>47.837127</v>
+        <v>36.02515</v>
       </c>
       <c r="H4">
-        <v>143.511381</v>
+        <v>108.07545</v>
       </c>
       <c r="I4">
-        <v>0.05107837591710958</v>
+        <v>0.06133193329924569</v>
       </c>
       <c r="J4">
-        <v>0.05107837591710957</v>
+        <v>0.0613319332992457</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>127.3845316666667</v>
+        <v>395.8171083333334</v>
       </c>
       <c r="N4">
-        <v>382.153595</v>
+        <v>1187.451325</v>
       </c>
       <c r="O4">
-        <v>0.3284720200998472</v>
+        <v>0.5769785230476177</v>
       </c>
       <c r="P4">
-        <v>0.3284720200998471</v>
+        <v>0.5769785230476177</v>
       </c>
       <c r="Q4">
-        <v>6093.710019173855</v>
+        <v>14259.37070027459</v>
       </c>
       <c r="R4">
-        <v>54843.39017256469</v>
+        <v>128334.3363024713</v>
       </c>
       <c r="S4">
-        <v>0.01677781732091237</v>
+        <v>0.03538720829065378</v>
       </c>
       <c r="T4">
-        <v>0.01677781732091236</v>
+        <v>0.03538720829065378</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>47.837127</v>
+        <v>36.02515</v>
       </c>
       <c r="H5">
-        <v>143.511381</v>
+        <v>108.07545</v>
       </c>
       <c r="I5">
-        <v>0.05107837591710958</v>
+        <v>0.06133193329924569</v>
       </c>
       <c r="J5">
-        <v>0.05107837591710957</v>
+        <v>0.0613319332992457</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1782366666666667</v>
+        <v>0.173927</v>
       </c>
       <c r="N5">
-        <v>0.53471</v>
+        <v>0.5217809999999999</v>
       </c>
       <c r="O5">
-        <v>0.0004595986434919951</v>
+        <v>0.0002535315969556132</v>
       </c>
       <c r="P5">
-        <v>0.0004595986434919951</v>
+        <v>0.0002535315969556133</v>
       </c>
       <c r="Q5">
-        <v>8.526330059390002</v>
+        <v>6.26574626405</v>
       </c>
       <c r="R5">
-        <v>76.73697053451001</v>
+        <v>56.39171637645001</v>
       </c>
       <c r="S5">
-        <v>2.347555228327776E-05</v>
+        <v>1.554958299373291E-05</v>
       </c>
       <c r="T5">
-        <v>2.347555228327775E-05</v>
+        <v>1.554958299373292E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>47.837127</v>
+        <v>36.02515</v>
       </c>
       <c r="H6">
-        <v>143.511381</v>
+        <v>108.07545</v>
       </c>
       <c r="I6">
-        <v>0.05107837591710958</v>
+        <v>0.06133193329924569</v>
       </c>
       <c r="J6">
-        <v>0.05107837591710957</v>
+        <v>0.0613319332992457</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>259.1857756666666</v>
+        <v>288.6811626666667</v>
       </c>
       <c r="N6">
-        <v>777.557327</v>
+        <v>866.043488</v>
       </c>
       <c r="O6">
-        <v>0.668332914526494</v>
+        <v>0.4208075582392796</v>
       </c>
       <c r="P6">
-        <v>0.668332914526494</v>
+        <v>0.4208075582392796</v>
       </c>
       <c r="Q6">
-        <v>12398.70286715984</v>
+        <v>10399.78218724107</v>
       </c>
       <c r="R6">
-        <v>111588.3258044386</v>
+        <v>93598.03968516961</v>
       </c>
       <c r="S6">
-        <v>0.03413735984596173</v>
+        <v>0.02580894109374994</v>
       </c>
       <c r="T6">
-        <v>0.03413735984596172</v>
+        <v>0.02580894109374994</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,13 +853,13 @@
         <v>255.905248</v>
       </c>
       <c r="H7">
-        <v>767.7157440000001</v>
+        <v>767.715744</v>
       </c>
       <c r="I7">
-        <v>0.2732443454747012</v>
+        <v>0.4356724011215199</v>
       </c>
       <c r="J7">
-        <v>0.2732443454747012</v>
+        <v>0.43567240112152</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.7744373333333333</v>
+        <v>1.058456666666667</v>
       </c>
       <c r="N7">
-        <v>2.323312</v>
+        <v>3.17537</v>
       </c>
       <c r="O7">
-        <v>0.001996953570362765</v>
+        <v>0.00154290138396175</v>
       </c>
       <c r="P7">
-        <v>0.001996953570362765</v>
+        <v>0.00154290138396175</v>
       </c>
       <c r="Q7">
-        <v>198.1825778471253</v>
+        <v>270.8646157805866</v>
       </c>
       <c r="R7">
-        <v>1783.643200624128</v>
+        <v>2437.78154202528</v>
       </c>
       <c r="S7">
-        <v>0.0005456562712771414</v>
+        <v>0.0006721995506443317</v>
       </c>
       <c r="T7">
-        <v>0.0005456562712771413</v>
+        <v>0.0006721995506443318</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,13 +915,13 @@
         <v>255.905248</v>
       </c>
       <c r="H8">
-        <v>767.7157440000001</v>
+        <v>767.715744</v>
       </c>
       <c r="I8">
-        <v>0.2732443454747012</v>
+        <v>0.4356724011215199</v>
       </c>
       <c r="J8">
-        <v>0.2732443454747012</v>
+        <v>0.43567240112152</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -936,22 +936,22 @@
         <v>0.8592070000000001</v>
       </c>
       <c r="O8">
-        <v>0.0007385131598040558</v>
+        <v>0.000417485732185422</v>
       </c>
       <c r="P8">
-        <v>0.0007385131598040556</v>
+        <v>0.0004174857321854219</v>
       </c>
       <c r="Q8">
         <v>73.29186013944535</v>
       </c>
       <c r="R8">
-        <v>659.6267412550081</v>
+        <v>659.626741255008</v>
       </c>
       <c r="S8">
-        <v>0.0002017945449751127</v>
+        <v>0.0001818870113751986</v>
       </c>
       <c r="T8">
-        <v>0.0002017945449751126</v>
+        <v>0.0001818870113751986</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,13 +977,13 @@
         <v>255.905248</v>
       </c>
       <c r="H9">
-        <v>767.7157440000001</v>
+        <v>767.715744</v>
       </c>
       <c r="I9">
-        <v>0.2732443454747012</v>
+        <v>0.4356724011215199</v>
       </c>
       <c r="J9">
-        <v>0.2732443454747012</v>
+        <v>0.43567240112152</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>127.3845316666667</v>
+        <v>395.8171083333334</v>
       </c>
       <c r="N9">
-        <v>382.153595</v>
+        <v>1187.451325</v>
       </c>
       <c r="O9">
-        <v>0.3284720200998472</v>
+        <v>0.5769785230476177</v>
       </c>
       <c r="P9">
-        <v>0.3284720200998471</v>
+        <v>0.5769785230476177</v>
       </c>
       <c r="Q9">
-        <v>32598.37016752219</v>
+        <v>101291.6752706845</v>
       </c>
       <c r="R9">
-        <v>293385.3315076997</v>
+        <v>911625.0774361608</v>
       </c>
       <c r="S9">
-        <v>0.08975312213893565</v>
+        <v>0.2513736185317038</v>
       </c>
       <c r="T9">
-        <v>0.0897531221389356</v>
+        <v>0.2513736185317039</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,13 +1039,13 @@
         <v>255.905248</v>
       </c>
       <c r="H10">
-        <v>767.7157440000001</v>
+        <v>767.715744</v>
       </c>
       <c r="I10">
-        <v>0.2732443454747012</v>
+        <v>0.4356724011215199</v>
       </c>
       <c r="J10">
-        <v>0.2732443454747012</v>
+        <v>0.43567240112152</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1782366666666667</v>
+        <v>0.173927</v>
       </c>
       <c r="N10">
-        <v>0.53471</v>
+        <v>0.5217809999999999</v>
       </c>
       <c r="O10">
-        <v>0.0004595986434919951</v>
+        <v>0.0002535315969556132</v>
       </c>
       <c r="P10">
-        <v>0.0004595986434919951</v>
+        <v>0.0002535315969556133</v>
       </c>
       <c r="Q10">
-        <v>45.61169838602667</v>
+        <v>44.50883206889599</v>
       </c>
       <c r="R10">
-        <v>410.5052854742401</v>
+        <v>400.579488620064</v>
       </c>
       <c r="S10">
-        <v>0.0001255827305220308</v>
+        <v>0.0001104567196058254</v>
       </c>
       <c r="T10">
-        <v>0.0001255827305220307</v>
+        <v>0.0001104567196058255</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,13 +1101,13 @@
         <v>255.905248</v>
       </c>
       <c r="H11">
-        <v>767.7157440000001</v>
+        <v>767.715744</v>
       </c>
       <c r="I11">
-        <v>0.2732443454747012</v>
+        <v>0.4356724011215199</v>
       </c>
       <c r="J11">
-        <v>0.2732443454747012</v>
+        <v>0.43567240112152</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>259.1857756666666</v>
+        <v>288.6811626666667</v>
       </c>
       <c r="N11">
-        <v>777.557327</v>
+        <v>866.043488</v>
       </c>
       <c r="O11">
-        <v>0.668332914526494</v>
+        <v>0.4208075582392796</v>
       </c>
       <c r="P11">
-        <v>0.668332914526494</v>
+        <v>0.4208075582392796</v>
       </c>
       <c r="Q11">
-        <v>66327.00020005069</v>
+        <v>73875.02452514168</v>
       </c>
       <c r="R11">
-        <v>596943.0018004563</v>
+        <v>664875.2207262751</v>
       </c>
       <c r="S11">
-        <v>0.1826181897889913</v>
+        <v>0.1833342393081908</v>
       </c>
       <c r="T11">
-        <v>0.1826181897889912</v>
+        <v>0.1833342393081908</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>295.7629596666666</v>
+        <v>78.61383033333333</v>
       </c>
       <c r="H12">
-        <v>887.288879</v>
+        <v>235.841491</v>
       </c>
       <c r="I12">
-        <v>0.315802653370277</v>
+        <v>0.1338381158274765</v>
       </c>
       <c r="J12">
-        <v>0.315802653370277</v>
+        <v>0.1338381158274766</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.7744373333333333</v>
+        <v>1.058456666666667</v>
       </c>
       <c r="N12">
-        <v>2.323312</v>
+        <v>3.17537</v>
       </c>
       <c r="O12">
-        <v>0.001996953570362765</v>
+        <v>0.00154290138396175</v>
       </c>
       <c r="P12">
-        <v>0.001996953570362765</v>
+        <v>0.00154290138396175</v>
       </c>
       <c r="Q12">
-        <v>229.0498777830275</v>
+        <v>83.20933280851888</v>
       </c>
       <c r="R12">
-        <v>2061.448900047248</v>
+        <v>748.88399527667</v>
       </c>
       <c r="S12">
-        <v>0.0006306432361778093</v>
+        <v>0.0002064990141370465</v>
       </c>
       <c r="T12">
-        <v>0.0006306432361778093</v>
+        <v>0.0002064990141370466</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>295.7629596666666</v>
+        <v>78.61383033333333</v>
       </c>
       <c r="H13">
-        <v>887.288879</v>
+        <v>235.841491</v>
       </c>
       <c r="I13">
-        <v>0.315802653370277</v>
+        <v>0.1338381158274765</v>
       </c>
       <c r="J13">
-        <v>0.315802653370277</v>
+        <v>0.1338381158274766</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1246,22 +1246,22 @@
         <v>0.8592070000000001</v>
       </c>
       <c r="O13">
-        <v>0.0007385131598040558</v>
+        <v>0.000417485732185422</v>
       </c>
       <c r="P13">
-        <v>0.0007385131598040556</v>
+        <v>0.0004174857321854219</v>
       </c>
       <c r="Q13">
-        <v>84.7072017621059</v>
+        <v>22.51518443973745</v>
       </c>
       <c r="R13">
-        <v>762.364815858953</v>
+        <v>202.636659957637</v>
       </c>
       <c r="S13">
-        <v>0.0002332244154149882</v>
+        <v>5.587550378055136E-05</v>
       </c>
       <c r="T13">
-        <v>0.0002332244154149881</v>
+        <v>5.587550378055136E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>295.7629596666666</v>
+        <v>78.61383033333333</v>
       </c>
       <c r="H14">
-        <v>887.288879</v>
+        <v>235.841491</v>
       </c>
       <c r="I14">
-        <v>0.315802653370277</v>
+        <v>0.1338381158274765</v>
       </c>
       <c r="J14">
-        <v>0.315802653370277</v>
+        <v>0.1338381158274766</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>127.3845316666667</v>
+        <v>395.8171083333334</v>
       </c>
       <c r="N14">
-        <v>382.153595</v>
+        <v>1187.451325</v>
       </c>
       <c r="O14">
-        <v>0.3284720200998472</v>
+        <v>0.5769785230476177</v>
       </c>
       <c r="P14">
-        <v>0.3284720200998471</v>
+        <v>0.5769785230476177</v>
       </c>
       <c r="Q14">
-        <v>37675.62610148555</v>
+        <v>31116.69899754729</v>
       </c>
       <c r="R14">
-        <v>339080.63491337</v>
+        <v>280050.2909779256</v>
       </c>
       <c r="S14">
-        <v>0.1037323355054267</v>
+        <v>0.0772217183976134</v>
       </c>
       <c r="T14">
-        <v>0.1037323355054267</v>
+        <v>0.07722171839761341</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>295.7629596666666</v>
+        <v>78.61383033333333</v>
       </c>
       <c r="H15">
-        <v>887.288879</v>
+        <v>235.841491</v>
       </c>
       <c r="I15">
-        <v>0.315802653370277</v>
+        <v>0.1338381158274765</v>
       </c>
       <c r="J15">
-        <v>0.315802653370277</v>
+        <v>0.1338381158274766</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.1782366666666667</v>
+        <v>0.173927</v>
       </c>
       <c r="N15">
-        <v>0.53471</v>
+        <v>0.5217809999999999</v>
       </c>
       <c r="O15">
-        <v>0.0004595986434919951</v>
+        <v>0.0002535315969556132</v>
       </c>
       <c r="P15">
-        <v>0.0004595986434919951</v>
+        <v>0.0002535315969556133</v>
       </c>
       <c r="Q15">
-        <v>52.71580405445444</v>
+        <v>13.67306766838566</v>
       </c>
       <c r="R15">
-        <v>474.44223649009</v>
+        <v>123.057609015471</v>
       </c>
       <c r="S15">
-        <v>0.000145142471100152</v>
+        <v>3.393219123927047E-05</v>
       </c>
       <c r="T15">
-        <v>0.000145142471100152</v>
+        <v>3.393219123927048E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>295.7629596666666</v>
+        <v>78.61383033333333</v>
       </c>
       <c r="H16">
-        <v>887.288879</v>
+        <v>235.841491</v>
       </c>
       <c r="I16">
-        <v>0.315802653370277</v>
+        <v>0.1338381158274765</v>
       </c>
       <c r="J16">
-        <v>0.315802653370277</v>
+        <v>0.1338381158274766</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>259.1857756666666</v>
+        <v>288.6811626666667</v>
       </c>
       <c r="N16">
-        <v>777.557327</v>
+        <v>866.043488</v>
       </c>
       <c r="O16">
-        <v>0.668332914526494</v>
+        <v>0.4208075582392796</v>
       </c>
       <c r="P16">
-        <v>0.668332914526494</v>
+        <v>0.4208075582392796</v>
       </c>
       <c r="Q16">
-        <v>76657.55211467404</v>
+        <v>22694.33194230673</v>
       </c>
       <c r="R16">
-        <v>689917.9690320664</v>
+        <v>204248.9874807606</v>
       </c>
       <c r="S16">
-        <v>0.2110613077421573</v>
+        <v>0.05632009072070628</v>
       </c>
       <c r="T16">
-        <v>0.2110613077421573</v>
+        <v>0.05632009072070629</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>186.7970273333333</v>
+        <v>120.7388203333334</v>
       </c>
       <c r="H17">
-        <v>560.391082</v>
+        <v>362.216461</v>
       </c>
       <c r="I17">
-        <v>0.1994536332069146</v>
+        <v>0.2055548769488429</v>
       </c>
       <c r="J17">
-        <v>0.1994536332069146</v>
+        <v>0.2055548769488429</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.7744373333333333</v>
+        <v>1.058456666666667</v>
       </c>
       <c r="N17">
-        <v>2.323312</v>
+        <v>3.17537</v>
       </c>
       <c r="O17">
-        <v>0.001996953570362765</v>
+        <v>0.00154290138396175</v>
       </c>
       <c r="P17">
-        <v>0.001996953570362765</v>
+        <v>0.00154290138396175</v>
       </c>
       <c r="Q17">
-        <v>144.6625917226204</v>
+        <v>127.7968093072856</v>
       </c>
       <c r="R17">
-        <v>1301.963325503584</v>
+        <v>1150.17128376557</v>
       </c>
       <c r="S17">
-        <v>0.0003982996449543735</v>
+        <v>0.0003171509041244569</v>
       </c>
       <c r="T17">
-        <v>0.0003982996449543735</v>
+        <v>0.000317150904124457</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>186.7970273333333</v>
+        <v>120.7388203333334</v>
       </c>
       <c r="H18">
-        <v>560.391082</v>
+        <v>362.216461</v>
       </c>
       <c r="I18">
-        <v>0.1994536332069146</v>
+        <v>0.2055548769488429</v>
       </c>
       <c r="J18">
-        <v>0.1994536332069146</v>
+        <v>0.2055548769488429</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1556,22 +1556,22 @@
         <v>0.8592070000000001</v>
       </c>
       <c r="O18">
-        <v>0.0007385131598040558</v>
+        <v>0.000417485732185422</v>
       </c>
       <c r="P18">
-        <v>0.0007385131598040556</v>
+        <v>0.0004174857321854219</v>
       </c>
       <c r="Q18">
-        <v>53.49910448799712</v>
+        <v>34.57987986738079</v>
       </c>
       <c r="R18">
-        <v>481.491940391974</v>
+        <v>311.218918806427</v>
       </c>
       <c r="S18">
-        <v>0.0001472991328940377</v>
+        <v>8.581622830727202E-05</v>
       </c>
       <c r="T18">
-        <v>0.0001472991328940376</v>
+        <v>8.581622830727201E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>186.7970273333333</v>
+        <v>120.7388203333334</v>
       </c>
       <c r="H19">
-        <v>560.391082</v>
+        <v>362.216461</v>
       </c>
       <c r="I19">
-        <v>0.1994536332069146</v>
+        <v>0.2055548769488429</v>
       </c>
       <c r="J19">
-        <v>0.1994536332069146</v>
+        <v>0.2055548769488429</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>127.3845316666667</v>
+        <v>395.8171083333334</v>
       </c>
       <c r="N19">
-        <v>382.153595</v>
+        <v>1187.451325</v>
       </c>
       <c r="O19">
-        <v>0.3284720200998472</v>
+        <v>0.5769785230476177</v>
       </c>
       <c r="P19">
-        <v>0.3284720200998471</v>
+        <v>0.5769785230476177</v>
       </c>
       <c r="Q19">
-        <v>23795.05184358219</v>
+        <v>47790.49072791788</v>
       </c>
       <c r="R19">
-        <v>214155.4665922398</v>
+        <v>430114.4165512609</v>
       </c>
       <c r="S19">
-        <v>0.06551493781572922</v>
+        <v>0.1186007493071782</v>
       </c>
       <c r="T19">
-        <v>0.06551493781572919</v>
+        <v>0.1186007493071782</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>186.7970273333333</v>
+        <v>120.7388203333334</v>
       </c>
       <c r="H20">
-        <v>560.391082</v>
+        <v>362.216461</v>
       </c>
       <c r="I20">
-        <v>0.1994536332069146</v>
+        <v>0.2055548769488429</v>
       </c>
       <c r="J20">
-        <v>0.1994536332069146</v>
+        <v>0.2055548769488429</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.1782366666666667</v>
+        <v>0.173927</v>
       </c>
       <c r="N20">
-        <v>0.53471</v>
+        <v>0.5217809999999999</v>
       </c>
       <c r="O20">
-        <v>0.0004595986434919951</v>
+        <v>0.0002535315969556132</v>
       </c>
       <c r="P20">
-        <v>0.0004595986434919951</v>
+        <v>0.0002535315969556133</v>
       </c>
       <c r="Q20">
-        <v>33.29407949513556</v>
+        <v>20.99974080411567</v>
       </c>
       <c r="R20">
-        <v>299.64671545622</v>
+        <v>188.997667237041</v>
       </c>
       <c r="S20">
-        <v>9.166861926144792E-05</v>
+        <v>5.211465621485472E-05</v>
       </c>
       <c r="T20">
-        <v>9.16686192614479E-05</v>
+        <v>5.211465621485474E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>186.7970273333333</v>
+        <v>120.7388203333334</v>
       </c>
       <c r="H21">
-        <v>560.391082</v>
+        <v>362.216461</v>
       </c>
       <c r="I21">
-        <v>0.1994536332069146</v>
+        <v>0.2055548769488429</v>
       </c>
       <c r="J21">
-        <v>0.1994536332069146</v>
+        <v>0.2055548769488429</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>259.1857756666666</v>
+        <v>288.6811626666667</v>
       </c>
       <c r="N21">
-        <v>777.557327</v>
+        <v>866.043488</v>
       </c>
       <c r="O21">
-        <v>0.668332914526494</v>
+        <v>0.4208075582392796</v>
       </c>
       <c r="P21">
-        <v>0.668332914526494</v>
+        <v>0.4208075582392796</v>
       </c>
       <c r="Q21">
-        <v>48415.13242161753</v>
+        <v>34855.02303282845</v>
       </c>
       <c r="R21">
-        <v>435736.1917945578</v>
+        <v>313695.207295456</v>
       </c>
       <c r="S21">
-        <v>0.1333014279940756</v>
+        <v>0.08649904585301817</v>
       </c>
       <c r="T21">
-        <v>0.1333014279940755</v>
+        <v>0.08649904585301817</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>150.2412563333334</v>
+        <v>96.09693533333332</v>
       </c>
       <c r="H22">
-        <v>450.7237690000001</v>
+        <v>288.290806</v>
       </c>
       <c r="I22">
-        <v>0.1604209920309976</v>
+        <v>0.1636026728029148</v>
       </c>
       <c r="J22">
-        <v>0.1604209920309976</v>
+        <v>0.1636026728029148</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.7744373333333333</v>
+        <v>1.058456666666667</v>
       </c>
       <c r="N22">
-        <v>2.323312</v>
+        <v>3.17537</v>
       </c>
       <c r="O22">
-        <v>0.001996953570362765</v>
+        <v>0.00154290138396175</v>
       </c>
       <c r="P22">
-        <v>0.001996953570362765</v>
+        <v>0.00154290138396175</v>
       </c>
       <c r="Q22">
-        <v>116.3524379114365</v>
+        <v>101.7144418498022</v>
       </c>
       <c r="R22">
-        <v>1047.171941202928</v>
+        <v>915.42997664822</v>
       </c>
       <c r="S22">
-        <v>0.0003203532727974374</v>
+        <v>0.0002524227902874585</v>
       </c>
       <c r="T22">
-        <v>0.0003203532727974373</v>
+        <v>0.0002524227902874586</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>150.2412563333334</v>
+        <v>96.09693533333332</v>
       </c>
       <c r="H23">
-        <v>450.7237690000001</v>
+        <v>288.290806</v>
       </c>
       <c r="I23">
-        <v>0.1604209920309976</v>
+        <v>0.1636026728029148</v>
       </c>
       <c r="J23">
-        <v>0.1604209920309976</v>
+        <v>0.1636026728029148</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1866,22 +1866,22 @@
         <v>0.8592070000000001</v>
       </c>
       <c r="O23">
-        <v>0.0007385131598040558</v>
+        <v>0.000417485732185422</v>
       </c>
       <c r="P23">
-        <v>0.0007385131598040556</v>
+        <v>0.0004174857321854219</v>
       </c>
       <c r="Q23">
-        <v>43.02944637679812</v>
+        <v>27.52238650564911</v>
       </c>
       <c r="R23">
-        <v>387.2650173911831</v>
+        <v>247.701478550842</v>
       </c>
       <c r="S23">
-        <v>0.0001184730137237133</v>
+        <v>6.830178164261689E-05</v>
       </c>
       <c r="T23">
-        <v>0.0001184730137237133</v>
+        <v>6.830178164261689E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>150.2412563333334</v>
+        <v>96.09693533333332</v>
       </c>
       <c r="H24">
-        <v>450.7237690000001</v>
+        <v>288.290806</v>
       </c>
       <c r="I24">
-        <v>0.1604209920309976</v>
+        <v>0.1636026728029148</v>
       </c>
       <c r="J24">
-        <v>0.1604209920309976</v>
+        <v>0.1636026728029148</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>127.3845316666667</v>
+        <v>395.8171083333334</v>
       </c>
       <c r="N24">
-        <v>382.153595</v>
+        <v>1187.451325</v>
       </c>
       <c r="O24">
-        <v>0.3284720200998472</v>
+        <v>0.5769785230476177</v>
       </c>
       <c r="P24">
-        <v>0.3284720200998471</v>
+        <v>0.5769785230476177</v>
       </c>
       <c r="Q24">
-        <v>19138.41207503328</v>
+        <v>38036.81106333532</v>
       </c>
       <c r="R24">
-        <v>172245.7086752996</v>
+        <v>342331.2995700179</v>
       </c>
       <c r="S24">
-        <v>0.05269380731884327</v>
+        <v>0.0943952285204684</v>
       </c>
       <c r="T24">
-        <v>0.05269380731884326</v>
+        <v>0.09439522852046843</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>150.2412563333334</v>
+        <v>96.09693533333332</v>
       </c>
       <c r="H25">
-        <v>450.7237690000001</v>
+        <v>288.290806</v>
       </c>
       <c r="I25">
-        <v>0.1604209920309976</v>
+        <v>0.1636026728029148</v>
       </c>
       <c r="J25">
-        <v>0.1604209920309976</v>
+        <v>0.1636026728029148</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.1782366666666667</v>
+        <v>0.173927</v>
       </c>
       <c r="N25">
-        <v>0.53471</v>
+        <v>0.5217809999999999</v>
       </c>
       <c r="O25">
-        <v>0.0004595986434919951</v>
+        <v>0.0002535315969556132</v>
       </c>
       <c r="P25">
-        <v>0.0004595986434919951</v>
+        <v>0.0002535315969556133</v>
       </c>
       <c r="Q25">
-        <v>26.77850072466556</v>
+        <v>16.71385167172066</v>
       </c>
       <c r="R25">
-        <v>241.00650652199</v>
+        <v>150.424665045486</v>
       </c>
       <c r="S25">
-        <v>7.372927032508667E-05</v>
+        <v>4.147844690192965E-05</v>
       </c>
       <c r="T25">
-        <v>7.372927032508665E-05</v>
+        <v>4.147844690192967E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>150.2412563333334</v>
+        <v>96.09693533333332</v>
       </c>
       <c r="H26">
-        <v>450.7237690000001</v>
+        <v>288.290806</v>
       </c>
       <c r="I26">
-        <v>0.1604209920309976</v>
+        <v>0.1636026728029148</v>
       </c>
       <c r="J26">
-        <v>0.1604209920309976</v>
+        <v>0.1636026728029148</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>259.1857756666666</v>
+        <v>288.6811626666667</v>
       </c>
       <c r="N26">
-        <v>777.557327</v>
+        <v>866.043488</v>
       </c>
       <c r="O26">
-        <v>0.668332914526494</v>
+        <v>0.4208075582392796</v>
       </c>
       <c r="P26">
-        <v>0.668332914526494</v>
+        <v>0.4208075582392796</v>
       </c>
       <c r="Q26">
-        <v>38940.3965598895</v>
+        <v>27741.37502073015</v>
       </c>
       <c r="R26">
-        <v>350463.5690390055</v>
+        <v>249672.3751865713</v>
       </c>
       <c r="S26">
-        <v>0.1072146291553081</v>
+        <v>0.06884524126361435</v>
       </c>
       <c r="T26">
-        <v>0.1072146291553081</v>
+        <v>0.06884524126361437</v>
       </c>
     </row>
   </sheetData>
